--- a/Data/Processed/Angiosperms/missing_powo_ipni/Piperaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Piperaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 696. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 696. 1935</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 697. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 697. 1935</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 701. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 701. 1935</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 705. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 705. 1935</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 705. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 705. 1935</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -877,7 +877,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 708. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 708. 1935</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 713. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 713. 1935</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 714. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 714. 1935</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 714. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 714. 1935</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 714. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 714. 1935</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proc. Amer. Philos. Soc. 75: 715. 1935 </t>
+          <t>Proc. Amer. Philos. Soc. 75: 715. 1935</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 8(17): 98 (1998). </t>
+          <t>Bradea 8(17): 98 (1998).</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 8: 98 (98-100, fig. 1). 1998 </t>
+          <t>Bradea 8: 98 (98-100, fig. 1). 1998</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inst. Bot. (São Paulo) no. 3: 140, fig. 124. 1966 </t>
+          <t>Bol. Inst. Bot. (São Paulo) no. 3: 140, fig. 124. 1966</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 116. 1900 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 116. 1900</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Bot. Brasil. 22(2): 559 (-561; fig. 1-17). 2008 </t>
+          <t>Acta Bot. Brasil. 22(2): 559 (-561; fig. 1-17). 2008</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vierteljahrsschr. Naturf. Ges. Zürich 60: 431. 1915 </t>
+          <t>Vierteljahrsschr. Naturf. Ges. Zürich 60: 431. 1915</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inst. Bot. (São Paulo) no. 3: 141. 1966 </t>
+          <t>Bol. Inst. Bot. (São Paulo) no. 3: 141. 1966</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 192, pl. 9, fig. 3. 1900 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 192, pl. 9, fig. 3. 1900</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 44, pl. 8, fig. 7. 1900 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 44, pl. 8, fig. 7. 1900</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 13: 62, fig. 5. 1961 </t>
+          <t>Brittonia 13: 62, fig. 5. 1961</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inst. Bot. (São Paulo) no. 3: 150, fig. 134. 1966 </t>
+          <t>Bol. Inst. Bot. (São Paulo) no. 3: 150, fig. 134. 1966</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 91. 1900 </t>
+          <t>Kongl. Svenska Vetensk.-Akad. Handl. 33(2): 91. 1900</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 1: 355. 1901 </t>
+          <t>Bull. Herb. Boissier ser. 2, 1: 355. 1901</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inst. Bot. (São Paulo) no. 3: 33, fig. 27. 1966 </t>
+          <t>Bol. Inst. Bot. (São Paulo) no. 3: 33, fig. 27. 1966</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 166. 1936 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 166. 1936</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 2: 265. 1898 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 2: 265. 1898</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candollea 1: 114, 252. 1923 </t>
+          <t>Candollea 1: 114, 252. 1923</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 438. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 438. 1917</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Inst. Bot. (São Paulo) no. 3: 49, fig. 42. 1966 </t>
+          <t>Bol. Inst. Bot. (São Paulo) no. 3: 49, fig. 42. 1966</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 439. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 439. 1917</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 437. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 437. 1917</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 22, no. 1: 11. 1940 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 22, no. 1: 11. 1940</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amer. J. Bot. 43: 161, fig. 1. 1956 </t>
+          <t>Amer. J. Bot. 43: 161, fig. 1. 1956</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 2: 254. 1898 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 2: 254. 1898</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 221. 1936 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 221. 1936</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candollea 1: 121, 273. 1923 </t>
+          <t>Candollea 1: 121, 273. 1923</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 224. 1936 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 224. 1936</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caldasia 6, no. 27: [19], fig. 1. 1953 </t>
+          <t>Caldasia 6, no. 27: [19], fig. 1. 1953</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Torrey Bot. Club 58: 354. 1931 </t>
+          <t>Bull. Torrey Bot. Club 58: 354. 1931</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 22, no. 1: 11. 1940 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 22, no. 1: 11. 1940</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 228. 1936 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 228. 1936</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 437. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 437. 1917</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 233. 1936 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 13, no. 357: 233. 1936</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 435. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 435. 1917</t>
         </is>
       </c>
       <c r="J51" t="b">
